--- a/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdpt.xlsx
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4308428024080164</v>
+        <v>0.3383571169547176</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5512810169439207</v>
+        <v>0.4136789058781119</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6996686930465851</v>
+        <v>0.5344303282584365</v>
       </c>
       <c r="F2" t="n">
-        <v>1.053304404536772</v>
+        <v>1.055971845676007</v>
       </c>
       <c r="G2" t="n">
-        <v>1.264510359248227</v>
+        <v>1.183508476785364</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdpt.xlsx
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3383571169547176</v>
+        <v>0.3383571179462308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4136789058781119</v>
+        <v>0.4136789054127073</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5344303282584365</v>
+        <v>0.5344303285259315</v>
       </c>
       <c r="F2" t="n">
-        <v>1.055971845676007</v>
+        <v>1.055971845592578</v>
       </c>
       <c r="G2" t="n">
-        <v>1.183508476785364</v>
+        <v>1.183508476831717</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdpt.xlsx
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3383571179462308</v>
+        <v>0.3383571183786774</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4136789054127073</v>
+        <v>0.4136789046926929</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5344303285259315</v>
+        <v>0.5344303282423897</v>
       </c>
       <c r="F2" t="n">
-        <v>1.055971845592578</v>
+        <v>1.055971845824642</v>
       </c>
       <c r="G2" t="n">
-        <v>1.183508476831717</v>
+        <v>1.183508476910736</v>
       </c>
     </row>
   </sheetData>
